--- a/biology/Botanique/Hopfen_aus_der_Hallertau/Hopfen_aus_der_Hallertau.xlsx
+++ b/biology/Botanique/Hopfen_aus_der_Hallertau/Hopfen_aus_der_Hallertau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hopfen aus der Hallertau (Houblon du Hallertau) est une indication géographique protégée (IGP) qui s'applique à une production de houblon cultivé en Bavière (Allemagne) dans la région houblonnière du Hallertau.
-L'appellation Hopfen aus der Hallertau a été inscrite dans la liste des indications géographiques de l'Union européenne en vertu du règlement (UE) n° 503/2007 de la Commission du 6 mai 2010[1]. La protection induite par cette appellation porte exclusivement sur les cônes de houblon séchés  (Lupuli  strobulus) et sur les  produits issus de leur transformation, c'est-à-dire granulés (pellets en anglais) et extraits de houblon obtenus à l'aide de CO2 et d'éthanol[2].
+L'appellation Hopfen aus der Hallertau a été inscrite dans la liste des indications géographiques de l'Union européenne en vertu du règlement (UE) n° 503/2007 de la Commission du 6 mai 2010. La protection induite par cette appellation porte exclusivement sur les cônes de houblon séchés  (Lupuli  strobulus) et sur les  produits issus de leur transformation, c'est-à-dire granulés (pellets en anglais) et extraits de houblon obtenus à l'aide de CO2 et d'éthanol.
 L'organisme chargé de la gestion de cette appellation est le Hopfenpflanzerverbandes Hallertau e.V. (Association des producteurs de houblon du Hallertau)
 </t>
         </is>
